--- a/results/performance-measure.xlsx
+++ b/results/performance-measure.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fy/workspace/cs4224f-mongodb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fy/workspace/cs4224f-mongodb/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10" sheetId="1" r:id="rId1"/>
+    <sheet name="20" sheetId="2" r:id="rId2"/>
+    <sheet name="40" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,6 +26,31 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+  <si>
+    <t>Majority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,12 +374,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>48.742767999999998</v>
+      </c>
+      <c r="C2">
+        <v>1.307245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>48.627164999999998</v>
+      </c>
+      <c r="C3">
+        <v>1.303094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39.106898999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.287477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>35.879345000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.276559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>33.249799000000003</v>
+      </c>
+      <c r="C6">
+        <v>1.2725979999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>46.631368000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.333466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>46.288378999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.34846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>34.703127000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.3126580000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>34.622070000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.2903469999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>34.217478</v>
+      </c>
+      <c r="C11">
+        <v>1.2922180000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>MIN(B2:B11)</f>
+        <v>33.249799000000003</v>
+      </c>
+      <c r="C13">
+        <f>MIN(C2:C11)</f>
+        <v>1.2725979999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B11)</f>
+        <v>40.206839799999997</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C2:C11)</f>
+        <v>1.3024122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>MAX(B2:B11)</f>
+        <v>48.742767999999998</v>
+      </c>
+      <c r="C15">
+        <f>MAX(C2:C11)</f>
+        <v>1.34846</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38.350053000000003</v>
+      </c>
+      <c r="C2">
+        <v>1.135618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>41.216664999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.1162479999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30.790756999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.95853200000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>29.231397999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.94918800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>26.646757999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.95353699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>38.154815999999997</v>
+      </c>
+      <c r="C7">
+        <v>1.1801550000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>44.335647999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.1836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>31.798190000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.020249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>29.675045999999998</v>
+      </c>
+      <c r="C10">
+        <v>1.04592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>29.856186000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.020581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>38.820535</v>
+      </c>
+      <c r="C12">
+        <v>1.07622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>41.679761999999997</v>
+      </c>
+      <c r="C13">
+        <v>1.060843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>32.125210000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.91974800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>30.31277</v>
+      </c>
+      <c r="C15">
+        <v>0.913462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>31.875463</v>
+      </c>
+      <c r="C16">
+        <v>0.91993800000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>37.173633000000002</v>
+      </c>
+      <c r="C17">
+        <v>1.048127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>38.217568</v>
+      </c>
+      <c r="C18">
+        <v>1.0419700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>30.130807999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.96414299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>28.688673000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.97951100000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28.589296000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.963175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>MIN(B2:B21)</f>
+        <v>26.646757999999998</v>
+      </c>
+      <c r="C23">
+        <f>MIN(C2:C21)</f>
+        <v>0.913462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B2:B21)</f>
+        <v>33.883461749999995</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C2:C21)</f>
+        <v>1.0225382499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f>MAX(B2:B21)</f>
+        <v>44.335647999999999</v>
+      </c>
+      <c r="C25">
+        <f>MAX(C2:C21)</f>
+        <v>1.1836</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28.200502</v>
+      </c>
+      <c r="C2">
+        <v>0.76923200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>29.375149</v>
+      </c>
+      <c r="C3">
+        <v>0.77139800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24.505586999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.76910699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23.983962999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.76060499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.195568000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.76402999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>29.253900999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.90146700000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>34.159700999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.90251700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22.871206000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.75408900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23.51924</v>
+      </c>
+      <c r="C10">
+        <v>0.76642100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>22.564997000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.74956800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>26.543786000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.72963699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27.446785999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.726387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23.217331000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.69398099999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>22.374165000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.68806400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23.910623999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.69163399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>29.070088999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.80038699999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>29.899184999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.80103400000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>22.545923999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.70853299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>23.220434999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.72109599999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>22.273783000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.70254799999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>25.695121</v>
+      </c>
+      <c r="C22">
+        <v>0.70675100000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>27.075218</v>
+      </c>
+      <c r="C23">
+        <v>0.71001599999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22.344888000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.68500300000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>22.356905000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.67365399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>22.311789000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.67461300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>24.872747</v>
+      </c>
+      <c r="C27">
+        <v>0.76737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27.197966000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.77477700000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>21.411543999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.68597200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>22.095261000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.69601400000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>22.693398999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.69206900000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28.030398000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.66115400000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>29.346820999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.66650200000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>28.056998</v>
+      </c>
+      <c r="C34">
+        <v>0.650779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24.310424999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.63849999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>23.877756000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.63618399999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>29.381349</v>
+      </c>
+      <c r="C37">
+        <v>0.66507700000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>30.573989000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.65990099999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>26.949421000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.650254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>23.007428000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.63797700000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>23.045656999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.63956199999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>MIN(B2:B41)</f>
+        <v>21.411543999999999</v>
+      </c>
+      <c r="C44">
+        <f>MIN(C2:C41)</f>
+        <v>0.63618399999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(B2:B41)</f>
+        <v>25.394175049999998</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C2:C41)</f>
+        <v>0.71859660000000014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <f>MAX(B2:B41)</f>
+        <v>34.159700999999998</v>
+      </c>
+      <c r="C46">
+        <f>MAX(C2:C41)</f>
+        <v>0.90251700000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
